--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosucncl-my.sharepoint.com/personal/juan_lopez_alumnos_ucn_cl/Documents/Ayudantias/Cadena/Ayudantias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0376FE2C-8CB2-F14D-8BA5-E3D70DB9CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB81D6F5-155C-4D21-A51A-7EB61FCD2B08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE6BFDE-B061-48A8-8E54-493E05FD9310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,21 +149,6 @@
     <t>Capacidad</t>
   </si>
   <si>
-    <t>La Serena</t>
-  </si>
-  <si>
-    <t>Coquimbo</t>
-  </si>
-  <si>
-    <t>Antofagasta</t>
-  </si>
-  <si>
-    <t>Vallenar</t>
-  </si>
-  <si>
-    <t>Copiapo</t>
-  </si>
-  <si>
     <t>Costo de transporte en Europe</t>
   </si>
   <si>
@@ -186,6 +171,21 @@
   </si>
   <si>
     <t>Dublin</t>
+  </si>
+  <si>
+    <t>Surco</t>
+  </si>
+  <si>
+    <t>San Juan Lurigancho</t>
+  </si>
+  <si>
+    <t>La Victoria</t>
+  </si>
+  <si>
+    <t>Villa el Salvador</t>
+  </si>
+  <si>
+    <t>Ica</t>
   </si>
 </sst>
 </file>
@@ -277,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,9 +317,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,26 +352,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,26 +387,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,19 +569,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -644,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -673,7 +639,7 @@
         <v>-3.7037901999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -702,7 +668,7 @@
         <v>2.3522219</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -731,7 +697,7 @@
         <v>-0.12775829999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -760,7 +726,7 @@
         <v>-2.9915726</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -789,7 +755,7 @@
         <v>12.4963655</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -818,7 +784,7 @@
         <v>9.1899820000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -847,9 +813,9 @@
         <v>8.5416939999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -876,7 +842,7 @@
         <v>13.404954</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -905,9 +871,9 @@
         <v>4.3517102999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -934,9 +900,9 @@
         <v>4.8945398000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -963,7 +929,7 @@
         <v>-6.2603096999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -992,7 +958,7 @@
         <v>14.4378005</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +987,7 @@
         <v>17.107747799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1016,7 @@
         <v>19.040234999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1045,7 @@
         <v>23.727538800000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1110,6 +1076,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Información Interna</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1121,16 +1090,16 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1159,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1188,7 +1157,7 @@
         <v>-3.7037901999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1186,7 @@
         <v>2.3522219</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1215,7 @@
         <v>-2.9915726</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1275,9 +1244,9 @@
         <v>9.1899820000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>29</v>
@@ -1304,7 +1273,7 @@
         <v>13.404954</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1333,9 +1302,9 @@
         <v>4.3517102999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>31</v>
@@ -1362,7 +1331,7 @@
         <v>4.8945398000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1360,7 @@
         <v>19.040234999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1422,6 +1391,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Información Interna</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1429,31 +1401,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA49ED5-5DB6-4845-BB7B-E79405779251}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1537,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1593,7 @@
         <v>1370.54</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1649,7 @@
         <v>1615.88</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1705,7 @@
         <v>1145.92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +1761,7 @@
         <v>518.84</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1845,9 +1817,9 @@
         <v>1163.4000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1901,7 +1873,7 @@
         <v>1097.3900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1957,7 +1929,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2015,6 +1987,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Información Interna</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2022,16 +1997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61C923E-2FC3-C84F-BCBC-62E88D321E97}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -2042,12 +2018,12 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2">
         <v>20000</v>
@@ -2062,9 +2038,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
         <v>15000</v>
@@ -2079,9 +2055,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2">
         <v>20000</v>
@@ -2096,9 +2072,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2">
         <v>10000</v>
@@ -2113,9 +2089,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
         <v>25000</v>
@@ -2132,6 +2108,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Información Interna</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2143,19 +2122,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Información Interna</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE6BFDE-B061-48A8-8E54-493E05FD9310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A24E5F0-A993-4C86-AA78-5E3A74B9AEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,16 +176,16 @@
     <t>Surco</t>
   </si>
   <si>
-    <t>San Juan Lurigancho</t>
-  </si>
-  <si>
     <t>La Victoria</t>
   </si>
   <si>
-    <t>Villa el Salvador</t>
-  </si>
-  <si>
     <t>Ica</t>
+  </si>
+  <si>
+    <t>Huanuco</t>
+  </si>
+  <si>
+    <t>Huacho</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C17" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +1998,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2">
         <v>15000</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2">
         <v>20000</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2">
         <v>10000</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>25000</v>
